--- a/biology/Zoologie/Hahniidae/Hahniidae.xlsx
+++ b/biology/Zoologie/Hahniidae/Hahniidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hahniidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hahniidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent sur tous les continents sauf aux pôles.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont de petites araignées vivant près du sol. Ces espèces tissent une toile très délicate en forme de nappe et qui ne comporte pas de loge. L'araignée se déplace sur cette toile selon le mode des tégénaires, à savoir sur le dessus. Très voisines des Agelenidae, elles s'en distinguent cependant par leur taille faible, ne dépassant pas 5 mm.
 </t>
@@ -573,9 +589,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Paléogène[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Paléogène.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 11/05/2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 11/05/2024) :
 Alistra Thorell, 1894
 Amaloxenops Schiapelli &amp; Gerschman, 1958
 Antistea Simon, 1898
@@ -636,7 +656,7 @@
 Sinahahnia Wang &amp; Zhang, 2024
 Troglohnia Lin &amp; Li, 2023
 Typhlohnia Lin &amp; Li, 2023
-Selon World Spider Catalog (version 23.5, 2023)[2] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Cymbiohahnia Wunderlich, 2004
 † Eocryphoeca Petrunkevitch, 1958
 † Eocryphoecara Wunderlich, 2004
@@ -669,11 +689,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Bertkau en 1878.
-Cette famille rassemble 239 espèces dans 29 genres actuels[1].
-La composition de cette famille a été modifiée par Wheeler et al. en 2017 : les Cicurininae ont été inclus et les Cryphoecinae exclus[3]. Les Cicurininae sont élevés au rang de famille par Gorneau et al. en 2023[4]
+Cette famille rassemble 239 espèces dans 29 genres actuels.
+La composition de cette famille a été modifiée par Wheeler et al. en 2017 : les Cicurininae ont été inclus et les Cryphoecinae exclus. Les Cicurininae sont élevés au rang de famille par Gorneau et al. en 2023
 </t>
         </is>
       </c>
@@ -702,7 +724,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Bertkau, 1878 : « Versuch einer natürlichen Anordnung der Spinnen nebst Bemerkungen zu einzelnen Gattungen. » Archiv für Naturgeschichte, vol. 44, no 1, p. 351–409 (texte intégral).</t>
         </is>
